--- a/settings/settings_printers_cutters.xlsx
+++ b/settings/settings_printers_cutters.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siets\Documents\Github\3D-scan-to-print\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scvro\Documents\GitHub\3D-scan-to-print\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232CE550-8907-49F5-89B8-EC288F9E6923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E5D40-5064-4CD7-A07B-3B9D74C1D1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="FormLabs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Printing with:</t>
   </si>
@@ -166,13 +167,55 @@
   </si>
   <si>
     <t>145 × 145 × 175 mm</t>
+  </si>
+  <si>
+    <t>https://support.formlabs.com/s/article/Using-Tough-Resin?language=en_US</t>
+  </si>
+  <si>
+    <t>Print Tough 2000 Resin with supports, and avoid printing directly on the build platform due to the high likelihood that the print will be difficult to remove from the build platform. For very bulky parts, increase the support touchpoint size to prevent print failures.</t>
+  </si>
+  <si>
+    <t>Parts printed with Tough 2000 Resin may be more difficult to remove from the build platform than parts printed with standard resins. To improve part removal, warm the build platform with heated air.</t>
+  </si>
+  <si>
+    <t>https://support.formlabs.com/s/article/Using-Rigid-10k-Resin?language=en_US</t>
+  </si>
+  <si>
+    <t>If stored at room temp for more than one week, Formlabs recommends manually wiping the tank or scraping with a soft spatula once or twice to mix the resin before starting a print.</t>
+  </si>
+  <si>
+    <t>Parts printed with Rigid 10K Resin offer similar accuracy and strong dimensional stability when compared to parts printed with standard resins.</t>
+  </si>
+  <si>
+    <t>The extended lifetime of Resin Tank LT does not apply when used with Rigid 10K Resin, a high-performance material that can accelerate wear on the tank. When used with Rigid 10K Resin, Resin Tank LT lasts between 1-2 liters before the elastic layer swells and begins to show wear. Learn how to recognize wear on Resin Tank LT and prolong tank lifetime when printing with Rigid 10K Resin.</t>
+  </si>
+  <si>
+    <t>Rigid 10K Resin allows for geometries that are slightly thinner than those possible with standard resins.</t>
+  </si>
+  <si>
+    <t>Rigid 10K Resin requires post-curing to reach its optimal mechanical properties and high heat deflection temperature (HDT).</t>
+  </si>
+  <si>
+    <t>NOTICE:</t>
+  </si>
+  <si>
+    <t>There are two post-curing options for Rigid 10K Resin. Refer to the technical data sheet to understand how different options affect mechanical properties, and choose the post-cure option that is best suited to the intended application.</t>
+  </si>
+  <si>
+    <t>Tough 2000 resin</t>
+  </si>
+  <si>
+    <t>Rigid 10K</t>
+  </si>
+  <si>
+    <t>Use Resin Tank LT(Form 2) or Resin Tank V2 (Form 3) are required for printing with Rigid 10K Resin when printing with Rigid 10K Resin. Standard resin tanks are incompatible with Rigid 10K Resin because the elastic layer in a standard resin tank swells when exposed to the uncured material.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +243,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,10 +411,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -405,8 +465,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,25 +798,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EBECA-DB97-4218-82D4-5E82205B7327}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="6" customWidth="1"/>
-    <col min="5" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="10" width="17.44140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5234375" customWidth="1"/>
+    <col min="2" max="2" width="18.3125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.3125" style="6" customWidth="1"/>
+    <col min="5" max="8" width="17.41796875" customWidth="1"/>
+    <col min="9" max="10" width="17.41796875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" customWidth="1"/>
+    <col min="12" max="12" width="12.41796875" customWidth="1"/>
+    <col min="13" max="13" width="12.3125" customWidth="1"/>
+    <col min="14" max="14" width="12.20703125" customWidth="1"/>
+    <col min="16" max="16" width="15.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="30"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -773,7 +850,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -802,7 +879,7 @@
       </c>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -827,7 +904,7 @@
       </c>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="30"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -837,7 +914,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
@@ -866,7 +943,7 @@
       </c>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="34"/>
       <c r="E7" s="30"/>
       <c r="F7" s="25"/>
@@ -877,7 +954,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="30"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -887,7 +964,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="30"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -897,7 +974,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2"/>
       <c r="E10" s="29"/>
       <c r="F10" s="23"/>
@@ -908,7 +985,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,7 +1006,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -950,7 +1027,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="30"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -960,7 +1037,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6"/>
       <c r="C14" s="9"/>
       <c r="E14" s="32"/>
@@ -972,7 +1049,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1062,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="30"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -995,7 +1072,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1085,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="30"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -1018,7 +1095,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1108,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1121,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1057,7 +1134,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1068,7 +1145,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1158,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1166,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="6" t="s">
         <v>15</v>
       </c>
@@ -1097,10 +1174,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1186,7 @@
       </c>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="6" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1194,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
@@ -1125,10 +1202,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1137,7 +1214,7 @@
       </c>
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1222,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="6" t="s">
         <v>15</v>
       </c>
@@ -1153,12 +1230,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="19"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1254,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1193,17 +1270,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="6" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1296,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
         <v>15</v>
@@ -1233,4 +1310,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8439C50E-456D-4392-879A-7DAA857A4E8B}">
+  <dimension ref="B2:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="152.7890625" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B2" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="39"/>
+    </row>
+    <row r="6" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="39"/>
+    </row>
+    <row r="8" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B8" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="39"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="39"/>
+    </row>
+    <row r="14" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="39"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="39"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="39"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{38AAF34D-2C2E-4A0E-BD30-88703FAD24D8}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{8B35FC18-C3D8-4CE8-9DAB-C5BC57546930}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/settings/settings_printers_cutters.xlsx
+++ b/settings/settings_printers_cutters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scvro\Documents\GitHub\3D-scan-to-print\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siets\Documents\Github\3D-scan-to-print\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E5D40-5064-4CD7-A07B-3B9D74C1D1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA5ACE-B46D-4005-91A7-4A46B4D5BC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Printing with:</t>
   </si>
@@ -209,6 +209,33 @@
   </si>
   <si>
     <t>Use Resin Tank LT(Form 2) or Resin Tank V2 (Form 3) are required for printing with Rigid 10K Resin when printing with Rigid 10K Resin. Standard resin tanks are incompatible with Rigid 10K Resin because the elastic layer in a standard resin tank swells when exposed to the uncured material.</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>curing time</t>
+  </si>
+  <si>
+    <t>rigid 10K V1</t>
+  </si>
+  <si>
+    <t>curing temp</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>70 °C</t>
+  </si>
+  <si>
+    <t>Optionally, post-cure and then heat the printed part at 125 ºC for 90 minutes for a higher heat deflection temperature.</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -260,15 +287,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -410,12 +443,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -481,6 +549,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -796,27 +890,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EBECA-DB97-4218-82D4-5E82205B7327}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5234375" customWidth="1"/>
-    <col min="2" max="2" width="18.3125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.3125" style="6" customWidth="1"/>
-    <col min="5" max="8" width="17.41796875" customWidth="1"/>
-    <col min="9" max="10" width="17.41796875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="18.1015625" customWidth="1"/>
-    <col min="12" max="12" width="12.41796875" customWidth="1"/>
-    <col min="13" max="13" width="12.3125" customWidth="1"/>
-    <col min="14" max="14" width="12.20703125" customWidth="1"/>
-    <col min="16" max="16" width="15.68359375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,28 +931,36 @@
       <c r="E1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E2" s="30"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="48"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -863,23 +973,27 @@
       <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -892,29 +1006,37 @@
       <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E5" s="30"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5" s="48"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
@@ -927,65 +1049,84 @@
       <c r="E6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="O6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="48"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E8" s="30"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L8" s="48"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E9" s="30"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="48"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="47"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -998,15 +1139,19 @@
       <c r="E11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="48"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1019,133 +1164,205 @@
       <c r="E12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="47"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="30"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L13" s="48"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="9"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="48"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L15" s="48"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E16" s="30"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="48"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="30"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="48"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="48"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E18" s="30"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="48"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L19" s="48"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="30"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L20" s="48"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L21" s="49"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" s="5" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="49"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -1155,10 +1372,13 @@
       <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="50"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1166,7 +1386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C30" s="6" t="s">
         <v>15</v>
       </c>
@@ -1174,10 +1394,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1406,7 @@
       </c>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1414,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
@@ -1202,10 +1422,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1434,7 @@
       </c>
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
@@ -1222,20 +1442,24 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="52"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="2"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1246,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1478,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
@@ -1262,7 +1486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,17 +1494,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C45" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C46" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C49" s="6" t="s">
         <v>17</v>
       </c>
@@ -1296,7 +1520,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
         <v>15</v>
@@ -1304,8 +1528,11 @@
       <c r="D50" s="3">
         <v>80</v>
       </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="2"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,102 +1543,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8439C50E-456D-4392-879A-7DAA857A4E8B}">
   <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="152.7890625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="152.77734375" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="39"/>
     </row>
-    <row r="6" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="39"/>
     </row>
-    <row r="8" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="39"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
     </row>
-    <row r="14" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="39"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="39"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="39"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
         <v>54</v>
       </c>

--- a/settings/settings_printers_cutters.xlsx
+++ b/settings/settings_printers_cutters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siets\Documents\Github\3D-scan-to-print\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA5ACE-B46D-4005-91A7-4A46B4D5BC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FDFC2-C035-4533-9BBE-A3BAF431B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
+    <workbookView xWindow="5496" yWindow="876" windowWidth="18144" windowHeight="8964" activeTab="1" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="FormLabs" sheetId="2" r:id="rId2"/>
+    <sheet name="glowforge settings" sheetId="3" r:id="rId2"/>
+    <sheet name="FormLabs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Printing with:</t>
   </si>
@@ -85,9 +86,6 @@
     <t>laser power</t>
   </si>
   <si>
-    <t>offset</t>
-  </si>
-  <si>
     <t>speed</t>
   </si>
   <si>
@@ -236,13 +234,40 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>wood 3,6mm</t>
+  </si>
+  <si>
+    <t>adhesion: PVA glue</t>
+  </si>
+  <si>
+    <t>nokia 8</t>
+  </si>
+  <si>
+    <t>anodized aluminuim</t>
+  </si>
+  <si>
+    <t>1000*</t>
+  </si>
+  <si>
+    <t>lines per cm</t>
+  </si>
+  <si>
+    <t>180*</t>
+  </si>
+  <si>
+    <t>FULL*</t>
+  </si>
+  <si>
+    <t>* = not yet tested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +311,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,14 +522,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -511,9 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -555,7 +588,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -564,7 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -575,6 +606,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -890,27 +937,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EBECA-DB97-4218-82D4-5E82205B7327}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="51" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="18.109375" customWidth="1"/>
     <col min="16" max="16" width="12.44140625" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
@@ -919,627 +967,1141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E2" s="30"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="55"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E5" s="26"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E8" s="26"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E9" s="26"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="41"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E5" s="30"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E8" s="30"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E9" s="30"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="28"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E16" s="26"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E16" s="30"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="34" t="s">
+      <c r="J16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="J17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E18" s="26"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="J18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="43"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" s="4" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="41"/>
+      <c r="D27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>180</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="60"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="54"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="41"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="2"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="60"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="58"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="25" t="s">
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C55" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="56"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="54"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C65" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="56"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="54"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C371DB-8B8F-4629-98D9-DA1DD071A6C1}">
+  <dimension ref="B6:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="15">
+        <v>180</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>246</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>605</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>170</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5">
+        <v>800</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="41"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E18" s="30"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="1"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="D31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>11</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="2"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="21"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="D34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="41"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="56"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+      <c r="D41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="3">
-        <v>80</v>
-      </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="2"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="22"/>
+      <c r="D44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="41"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="56"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8439C50E-456D-4392-879A-7DAA857A4E8B}">
   <dimension ref="B2:B22"/>
   <sheetViews>
@@ -1549,98 +2111,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="152.77734375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="152.77734375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:2" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="2:2" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-    </row>
-    <row r="6" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-    </row>
-    <row r="8" spans="2:2" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-    </row>
-    <row r="14" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/settings/settings_printers_cutters.xlsx
+++ b/settings/settings_printers_cutters.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siets\Documents\Github\3D-scan-to-print\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FDFC2-C035-4533-9BBE-A3BAF431B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AAF1DB-603A-4F45-A655-F24158B21EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5496" yWindow="876" windowWidth="18144" windowHeight="8964" activeTab="1" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
+    <workbookView xWindow="2928" yWindow="1188" windowWidth="12528" windowHeight="10200" activeTab="2" xr2:uid="{6D5578FB-A4FD-4854-B90C-034445EFB167}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="glowforge settings" sheetId="3" r:id="rId2"/>
-    <sheet name="FormLabs" sheetId="2" r:id="rId3"/>
+    <sheet name="beamo settings" sheetId="4" r:id="rId3"/>
+    <sheet name="FormLabs" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="88">
   <si>
     <t>Printing with:</t>
   </si>
@@ -261,13 +262,52 @@
   </si>
   <si>
     <t>* = not yet tested</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>spool holder project</t>
+  </si>
+  <si>
+    <t>acryl 4mm</t>
+  </si>
+  <si>
+    <t>3mm white acrylic</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>mm/s</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>time(s)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>4mm clear acryl</t>
+  </si>
+  <si>
+    <t>from shed at home</t>
+  </si>
+  <si>
+    <t>found old sheet of store</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +359,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -522,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -622,6 +670,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1683,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C371DB-8B8F-4629-98D9-DA1DD071A6C1}">
-  <dimension ref="B6:F47"/>
+  <dimension ref="B6:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2096,12 +2145,450 @@
       <c r="E47" s="53"/>
       <c r="F47" s="54"/>
     </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="5">
+        <v>135</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="8"/>
+      <c r="C54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="41"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="56"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7314306-EB76-4FDF-9755-A2ADC9584A3D}">
+  <dimension ref="B8:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="5">
+        <v>150</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8439C50E-456D-4392-879A-7DAA857A4E8B}">
   <dimension ref="B2:B22"/>
   <sheetViews>
